--- a/mans.xlsx
+++ b/mans.xlsx
@@ -16,13 +16,14 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId2"/>
     <sheet name="mans" sheetId="1" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="112">
   <si>
     <t>채상진</t>
   </si>
@@ -425,6 +426,18 @@
   </si>
   <si>
     <t>result</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴무를 배치한다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴무는 일주일에 3일 3번, 2일 4번이다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴무는 10일 4명, 11일 3명, 12일 1명이다</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -18449,8 +18462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -34706,4 +34719,35 @@
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D6:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.45">
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mans.xlsx
+++ b/mans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="127">
   <si>
     <t>채상진</t>
   </si>
@@ -438,6 +438,66 @@
   </si>
   <si>
     <t>휴무는 10일 4명, 11일 3명, 12일 1명이다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 시간은 주 52시간을 넘을 수 없다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>채상진을 배치한다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>채상진은 야간은 할 수 없다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>주</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>전</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>전</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>후</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>야</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>채상진은 다음 근무만 할 수 있다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 주에 a 3번, b 4번이다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴무가 3일이면 a, 2일이면 b이다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day 근무 타입(a,b)를 확인한다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>근무 타입에 맞게 근무를 배치한다</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">야간 다음에는 휴무나 </t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -2127,79 +2187,7 @@
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="표준 2" xfId="42"/>
   </cellStyles>
-  <dxfs count="1338">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF5C2A08"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF680000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF41050B"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF4B1545"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF1C5EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF263C18"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1332">
     <dxf>
       <font>
         <b/>
@@ -18462,8 +18450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T42" sqref="T42"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -23361,2022 +23349,2022 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="B45:H45 B66:H66 B87:H87 B12:H16 C18:H22 B19:H24">
-    <cfRule type="containsText" dxfId="1337" priority="1255" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1331" priority="1255" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1336" priority="1256" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1330" priority="1256" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1335" priority="1257" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1329" priority="1257" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1334" priority="1258" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1328" priority="1258" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1333" priority="1259" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1327" priority="1259" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1332" priority="1260" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1326" priority="1260" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="containsText" dxfId="1331" priority="661" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1325" priority="661" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1330" priority="662" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1324" priority="662" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1329" priority="663" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1323" priority="663" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1328" priority="664" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1322" priority="664" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1327" priority="665" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1321" priority="665" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1326" priority="666" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1320" priority="666" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="containsText" dxfId="1325" priority="655" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1319" priority="655" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1324" priority="656" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1318" priority="656" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1323" priority="657" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1317" priority="657" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1322" priority="658" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1316" priority="658" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1321" priority="659" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1315" priority="659" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",E3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1320" priority="660" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1314" priority="660" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="1319" priority="649" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1313" priority="649" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1318" priority="650" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1312" priority="650" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1317" priority="651" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1311" priority="651" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1316" priority="652" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1310" priority="652" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1315" priority="653" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1309" priority="653" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1314" priority="654" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1308" priority="654" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="containsText" dxfId="1313" priority="643" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1307" priority="643" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1312" priority="644" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1306" priority="644" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1311" priority="645" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1305" priority="645" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1310" priority="646" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1304" priority="646" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1309" priority="647" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1303" priority="647" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1308" priority="648" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1302" priority="648" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="1307" priority="637" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1301" priority="637" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1306" priority="638" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1300" priority="638" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1305" priority="639" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1299" priority="639" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1304" priority="640" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1298" priority="640" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1303" priority="641" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1297" priority="641" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1302" priority="642" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1296" priority="642" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="containsText" dxfId="1301" priority="631" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1295" priority="631" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1300" priority="632" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1294" priority="632" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1299" priority="633" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1293" priority="633" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1298" priority="634" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1292" priority="634" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1297" priority="635" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1291" priority="635" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1296" priority="636" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1290" priority="636" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="containsText" dxfId="1295" priority="625" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1289" priority="625" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1294" priority="626" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1288" priority="626" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1293" priority="627" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1287" priority="627" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1292" priority="628" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1286" priority="628" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1291" priority="629" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1285" priority="629" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1290" priority="630" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1284" priority="630" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="1289" priority="619" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1283" priority="619" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1288" priority="620" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1282" priority="620" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1287" priority="621" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1281" priority="621" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1286" priority="622" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1280" priority="622" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1285" priority="623" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1279" priority="623" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1284" priority="624" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1278" priority="624" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="containsText" dxfId="1283" priority="613" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1277" priority="613" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1282" priority="614" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1276" priority="614" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1281" priority="615" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1275" priority="615" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1280" priority="616" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1274" priority="616" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1279" priority="617" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1273" priority="617" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1278" priority="618" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1272" priority="618" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="containsText" dxfId="1277" priority="607" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1271" priority="607" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1276" priority="608" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1270" priority="608" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1275" priority="609" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1269" priority="609" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1274" priority="610" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1268" priority="610" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1273" priority="611" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1267" priority="611" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1272" priority="612" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1266" priority="612" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8">
-    <cfRule type="containsText" dxfId="1271" priority="601" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1265" priority="601" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1270" priority="602" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1264" priority="602" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1269" priority="603" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1263" priority="603" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1268" priority="604" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1262" priority="604" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1267" priority="605" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1261" priority="605" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1266" priority="606" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1260" priority="606" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="containsText" dxfId="1265" priority="595" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1259" priority="595" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1264" priority="596" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1258" priority="596" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1263" priority="597" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1257" priority="597" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1262" priority="598" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1256" priority="598" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1261" priority="599" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1255" priority="599" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1260" priority="600" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1254" priority="600" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="containsText" dxfId="1259" priority="589" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1253" priority="589" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1258" priority="590" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1252" priority="590" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1257" priority="591" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1251" priority="591" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1256" priority="592" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1250" priority="592" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1255" priority="593" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1249" priority="593" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1254" priority="594" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1248" priority="594" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="1253" priority="583" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1247" priority="583" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1252" priority="584" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1246" priority="584" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1251" priority="585" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1245" priority="585" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1250" priority="586" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1244" priority="586" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1249" priority="587" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1243" priority="587" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1248" priority="588" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1242" priority="588" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="containsText" dxfId="1247" priority="577" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1241" priority="577" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1246" priority="578" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1240" priority="578" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1245" priority="579" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1239" priority="579" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1244" priority="580" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1238" priority="580" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1243" priority="581" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1237" priority="581" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",E10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1242" priority="582" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1236" priority="582" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",E10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="1241" priority="571" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1235" priority="571" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1240" priority="572" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1234" priority="572" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1239" priority="573" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1233" priority="573" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1238" priority="574" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1232" priority="574" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1237" priority="575" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1231" priority="575" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1236" priority="576" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1230" priority="576" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="1235" priority="565" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1229" priority="565" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1234" priority="566" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1228" priority="566" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1233" priority="567" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1227" priority="567" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1232" priority="568" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1226" priority="568" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1231" priority="569" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1225" priority="569" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1230" priority="570" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1224" priority="570" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="containsText" dxfId="1229" priority="559" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1223" priority="559" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1228" priority="560" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1222" priority="560" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1227" priority="561" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1221" priority="561" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1226" priority="562" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1220" priority="562" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1225" priority="563" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1219" priority="563" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D25)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1224" priority="564" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1218" priority="564" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="containsText" dxfId="1223" priority="553" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1217" priority="553" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1222" priority="554" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1216" priority="554" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1221" priority="555" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1215" priority="555" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1220" priority="556" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1214" priority="556" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1219" priority="557" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1213" priority="557" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1218" priority="558" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1212" priority="558" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="1217" priority="547" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1211" priority="547" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1216" priority="548" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1210" priority="548" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1215" priority="549" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1209" priority="549" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1214" priority="550" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1208" priority="550" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1213" priority="551" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1207" priority="551" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H26)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1212" priority="552" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1206" priority="552" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="1211" priority="541" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1205" priority="541" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1210" priority="542" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1204" priority="542" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1209" priority="543" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1203" priority="543" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1208" priority="544" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1202" priority="544" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1207" priority="545" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1201" priority="545" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1206" priority="546" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1200" priority="546" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="containsText" dxfId="1205" priority="535" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1199" priority="535" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1204" priority="536" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1198" priority="536" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1203" priority="537" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1197" priority="537" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1202" priority="538" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1196" priority="538" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1201" priority="539" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1195" priority="539" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D27)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1200" priority="540" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1194" priority="540" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="containsText" dxfId="1199" priority="529" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1193" priority="529" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1198" priority="530" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1192" priority="530" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1197" priority="531" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1191" priority="531" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1196" priority="532" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1190" priority="532" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1195" priority="533" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1189" priority="533" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1194" priority="534" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1188" priority="534" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="containsText" dxfId="1193" priority="523" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1187" priority="523" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1192" priority="524" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1186" priority="524" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1191" priority="525" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1185" priority="525" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1190" priority="526" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1184" priority="526" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1189" priority="527" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1183" priority="527" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1188" priority="528" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1182" priority="528" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="containsText" dxfId="1187" priority="517" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1181" priority="517" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1186" priority="518" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1180" priority="518" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1185" priority="519" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1179" priority="519" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1184" priority="520" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1178" priority="520" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1183" priority="521" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1177" priority="521" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1182" priority="522" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1176" priority="522" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="1181" priority="511" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1175" priority="511" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1180" priority="512" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1174" priority="512" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1179" priority="513" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1173" priority="513" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1178" priority="514" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1172" priority="514" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1177" priority="515" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1171" priority="515" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1176" priority="516" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1170" priority="516" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="1175" priority="505" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1169" priority="505" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1174" priority="506" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1168" priority="506" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1173" priority="507" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1167" priority="507" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1172" priority="508" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1166" priority="508" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1171" priority="509" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1165" priority="509" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1170" priority="510" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1164" priority="510" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="containsText" dxfId="1169" priority="499" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1163" priority="499" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1168" priority="500" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1162" priority="500" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1167" priority="501" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1161" priority="501" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1166" priority="502" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1160" priority="502" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1165" priority="503" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1159" priority="503" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1164" priority="504" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1158" priority="504" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="1163" priority="487" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1157" priority="487" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1162" priority="488" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1156" priority="488" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1161" priority="489" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1155" priority="489" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1160" priority="490" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1154" priority="490" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1159" priority="491" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1153" priority="491" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1158" priority="492" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1152" priority="492" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="containsText" dxfId="1157" priority="481" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1151" priority="481" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1156" priority="482" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1150" priority="482" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1155" priority="483" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1149" priority="483" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1154" priority="484" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1148" priority="484" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1153" priority="485" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1147" priority="485" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",E32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1152" priority="486" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1146" priority="486" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",E32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="containsText" dxfId="1151" priority="475" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1145" priority="475" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1150" priority="476" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1144" priority="476" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1149" priority="477" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1143" priority="477" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1148" priority="478" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1142" priority="478" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1147" priority="479" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1141" priority="479" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1146" priority="480" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1140" priority="480" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47">
-    <cfRule type="containsText" dxfId="1145" priority="457" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1139" priority="457" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1144" priority="458" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1138" priority="458" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1143" priority="459" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1137" priority="459" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1142" priority="460" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1136" priority="460" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1141" priority="461" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1135" priority="461" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1140" priority="462" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1134" priority="462" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="containsText" dxfId="1139" priority="469" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1133" priority="469" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1138" priority="470" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1132" priority="470" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1137" priority="471" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1131" priority="471" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1136" priority="472" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1130" priority="472" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1135" priority="473" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1129" priority="473" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1134" priority="474" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1128" priority="474" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46">
-    <cfRule type="containsText" dxfId="1133" priority="463" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1127" priority="463" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1132" priority="464" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1126" priority="464" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1131" priority="465" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1125" priority="465" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1130" priority="466" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1124" priority="466" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1129" priority="467" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1123" priority="467" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1128" priority="468" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1122" priority="468" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="containsText" dxfId="1127" priority="451" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1121" priority="451" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1126" priority="452" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1120" priority="452" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1125" priority="453" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1119" priority="453" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1124" priority="454" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1118" priority="454" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1123" priority="455" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1117" priority="455" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1122" priority="456" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1116" priority="456" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="1121" priority="445" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1115" priority="445" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1120" priority="446" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1114" priority="446" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1119" priority="447" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1113" priority="447" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1118" priority="448" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1112" priority="448" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1117" priority="449" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1111" priority="449" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1116" priority="450" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1110" priority="450" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48">
-    <cfRule type="containsText" dxfId="1115" priority="439" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1109" priority="439" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1114" priority="440" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1108" priority="440" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1113" priority="441" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1107" priority="441" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1112" priority="442" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1106" priority="442" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1111" priority="443" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1105" priority="443" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1110" priority="444" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1104" priority="444" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="containsText" dxfId="1109" priority="433" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1103" priority="433" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1108" priority="434" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1102" priority="434" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1107" priority="435" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1101" priority="435" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1106" priority="436" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1100" priority="436" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1105" priority="437" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1099" priority="437" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1104" priority="438" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1098" priority="438" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G49">
-    <cfRule type="containsText" dxfId="1103" priority="427" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1097" priority="427" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1102" priority="428" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1096" priority="428" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1101" priority="429" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1095" priority="429" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1100" priority="430" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1094" priority="430" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1099" priority="431" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1093" priority="431" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1098" priority="432" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1092" priority="432" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="containsText" dxfId="1097" priority="421" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1091" priority="421" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1096" priority="422" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1090" priority="422" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1095" priority="423" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1089" priority="423" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1094" priority="424" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1088" priority="424" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1093" priority="425" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1087" priority="425" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1092" priority="426" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1086" priority="426" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="1091" priority="415" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1085" priority="415" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1090" priority="416" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1084" priority="416" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1089" priority="417" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1083" priority="417" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1088" priority="418" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1082" priority="418" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1087" priority="419" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1081" priority="419" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1086" priority="420" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1080" priority="420" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51">
-    <cfRule type="containsText" dxfId="1085" priority="409" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1079" priority="409" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1084" priority="410" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1078" priority="410" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1083" priority="411" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1077" priority="411" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1082" priority="412" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1076" priority="412" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1081" priority="413" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1075" priority="413" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1080" priority="414" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1074" priority="414" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="containsText" dxfId="1079" priority="403" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1073" priority="403" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1078" priority="404" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1072" priority="404" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1077" priority="405" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1071" priority="405" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1076" priority="406" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1070" priority="406" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1075" priority="407" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1069" priority="407" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1074" priority="408" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1068" priority="408" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="containsText" dxfId="1073" priority="397" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1067" priority="397" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1072" priority="398" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1066" priority="398" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1071" priority="399" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1065" priority="399" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1070" priority="400" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1064" priority="400" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1069" priority="401" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1063" priority="401" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1068" priority="402" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1062" priority="402" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="1067" priority="391" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1061" priority="391" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1066" priority="392" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1060" priority="392" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1065" priority="393" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1059" priority="393" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1064" priority="394" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1058" priority="394" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1063" priority="395" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1057" priority="395" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F52)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1062" priority="396" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1056" priority="396" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F52)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="containsText" dxfId="1061" priority="385" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1055" priority="385" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1060" priority="386" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1054" priority="386" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1059" priority="387" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1053" priority="387" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1058" priority="388" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1052" priority="388" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1057" priority="389" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1051" priority="389" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",E53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1056" priority="390" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1050" priority="390" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",E53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G53">
-    <cfRule type="containsText" dxfId="1055" priority="379" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1049" priority="379" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1054" priority="380" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1048" priority="380" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1053" priority="381" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1047" priority="381" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1052" priority="382" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1046" priority="382" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1051" priority="383" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1045" priority="383" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G53)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1050" priority="384" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1044" priority="384" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G53)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C67">
-    <cfRule type="containsText" dxfId="1049" priority="373" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1043" priority="373" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1048" priority="374" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1042" priority="374" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1047" priority="375" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1041" priority="375" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1046" priority="376" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1040" priority="376" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1045" priority="377" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1039" priority="377" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1044" priority="378" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1038" priority="378" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D67">
-    <cfRule type="containsText" dxfId="1043" priority="367" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1037" priority="367" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1042" priority="368" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1036" priority="368" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1041" priority="369" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1035" priority="369" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1040" priority="370" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1034" priority="370" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1039" priority="371" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1033" priority="371" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1038" priority="372" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1032" priority="372" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="containsText" dxfId="1037" priority="361" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1031" priority="361" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1036" priority="362" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1030" priority="362" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1035" priority="363" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1029" priority="363" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1034" priority="364" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1028" priority="364" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1033" priority="365" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1027" priority="365" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1032" priority="366" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1026" priority="366" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="containsText" dxfId="1031" priority="355" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1025" priority="355" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1030" priority="356" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1024" priority="356" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1029" priority="357" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1023" priority="357" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1028" priority="358" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1022" priority="358" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1027" priority="359" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1021" priority="359" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1026" priority="360" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1020" priority="360" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="1025" priority="349" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1019" priority="349" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1024" priority="350" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1018" priority="350" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1023" priority="351" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1017" priority="351" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1022" priority="352" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1016" priority="352" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1021" priority="353" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1015" priority="353" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1020" priority="354" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1014" priority="354" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69">
-    <cfRule type="containsText" dxfId="1019" priority="343" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1013" priority="343" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1018" priority="344" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1012" priority="344" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1017" priority="345" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1011" priority="345" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1016" priority="346" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1010" priority="346" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1015" priority="347" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1009" priority="347" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1014" priority="348" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1008" priority="348" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C70">
-    <cfRule type="containsText" dxfId="1013" priority="337" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1007" priority="337" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1012" priority="338" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1006" priority="338" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1011" priority="339" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="1005" priority="339" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1010" priority="340" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="1004" priority="340" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1009" priority="341" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="1003" priority="341" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1008" priority="342" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="1002" priority="342" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G70">
-    <cfRule type="containsText" dxfId="1007" priority="331" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="1001" priority="331" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1006" priority="332" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="1000" priority="332" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1005" priority="333" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="999" priority="333" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1004" priority="334" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="998" priority="334" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1003" priority="335" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="997" priority="335" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1002" priority="336" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="996" priority="336" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="containsText" dxfId="1001" priority="325" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="995" priority="325" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1000" priority="326" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="994" priority="326" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="999" priority="327" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="993" priority="327" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="998" priority="328" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="992" priority="328" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="997" priority="329" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="991" priority="329" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="996" priority="330" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="990" priority="330" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B71">
-    <cfRule type="containsText" dxfId="995" priority="319" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="989" priority="319" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="994" priority="320" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="988" priority="320" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="993" priority="321" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="987" priority="321" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="992" priority="322" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="986" priority="322" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="991" priority="323" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="985" priority="323" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="990" priority="324" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="984" priority="324" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B72">
-    <cfRule type="containsText" dxfId="989" priority="313" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="983" priority="313" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="988" priority="314" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="982" priority="314" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="987" priority="315" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="981" priority="315" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="986" priority="316" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="980" priority="316" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="985" priority="317" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="979" priority="317" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="984" priority="318" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="978" priority="318" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="containsText" dxfId="983" priority="307" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="977" priority="307" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="982" priority="308" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="976" priority="308" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="981" priority="309" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="975" priority="309" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="980" priority="310" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="974" priority="310" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="979" priority="311" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="973" priority="311" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="978" priority="312" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="972" priority="312" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D73">
-    <cfRule type="containsText" dxfId="977" priority="301" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="971" priority="301" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="976" priority="302" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="970" priority="302" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="975" priority="303" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="969" priority="303" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="974" priority="304" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="968" priority="304" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="973" priority="305" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="967" priority="305" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="972" priority="306" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="966" priority="306" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="971" priority="295" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="965" priority="295" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="970" priority="296" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="964" priority="296" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="969" priority="297" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="963" priority="297" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="968" priority="298" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="962" priority="298" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="967" priority="299" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="961" priority="299" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="966" priority="300" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="960" priority="300" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74">
-    <cfRule type="containsText" dxfId="965" priority="289" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="959" priority="289" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="964" priority="290" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="958" priority="290" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="963" priority="291" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="957" priority="291" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="962" priority="292" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="956" priority="292" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="961" priority="293" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="955" priority="293" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",E74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="960" priority="294" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="954" priority="294" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",E74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G74">
-    <cfRule type="containsText" dxfId="959" priority="283" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="953" priority="283" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="958" priority="284" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="952" priority="284" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="957" priority="285" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="951" priority="285" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="956" priority="286" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="950" priority="286" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="955" priority="287" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="949" priority="287" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="954" priority="288" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="948" priority="288" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C88">
-    <cfRule type="containsText" dxfId="953" priority="277" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="947" priority="277" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="952" priority="278" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="946" priority="278" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="951" priority="279" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="945" priority="279" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="950" priority="280" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="944" priority="280" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="949" priority="281" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="943" priority="281" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="948" priority="282" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="942" priority="282" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D88">
-    <cfRule type="containsText" dxfId="947" priority="271" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="941" priority="271" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="946" priority="272" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="940" priority="272" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="945" priority="273" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="939" priority="273" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="944" priority="274" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="938" priority="274" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="943" priority="275" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="937" priority="275" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="942" priority="276" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="936" priority="276" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="containsText" dxfId="941" priority="265" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="935" priority="265" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="940" priority="266" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="934" priority="266" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="939" priority="267" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="933" priority="267" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="938" priority="268" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="932" priority="268" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="937" priority="269" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="931" priority="269" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="936" priority="270" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="930" priority="270" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" dxfId="935" priority="259" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="929" priority="259" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="934" priority="260" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="928" priority="260" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="933" priority="261" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="927" priority="261" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="932" priority="262" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="926" priority="262" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="931" priority="263" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="925" priority="263" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="930" priority="264" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="924" priority="264" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="containsText" dxfId="929" priority="253" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="923" priority="253" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="928" priority="254" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="922" priority="254" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="927" priority="255" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="921" priority="255" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="926" priority="256" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="920" priority="256" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="925" priority="257" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="919" priority="257" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="924" priority="258" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="918" priority="258" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D90">
-    <cfRule type="containsText" dxfId="923" priority="247" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="917" priority="247" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="922" priority="248" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="916" priority="248" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="921" priority="249" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="915" priority="249" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="920" priority="250" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="914" priority="250" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="919" priority="251" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="913" priority="251" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="918" priority="252" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="912" priority="252" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="917" priority="241" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="911" priority="241" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="916" priority="242" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="910" priority="242" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="915" priority="243" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="909" priority="243" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="914" priority="244" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="908" priority="244" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="913" priority="245" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="907" priority="245" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="912" priority="246" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="906" priority="246" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G91">
-    <cfRule type="containsText" dxfId="911" priority="235" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="905" priority="235" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="910" priority="236" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="904" priority="236" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="909" priority="237" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="903" priority="237" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="908" priority="238" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="902" priority="238" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="907" priority="239" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="901" priority="239" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="906" priority="240" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="900" priority="240" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="containsText" dxfId="905" priority="229" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="899" priority="229" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="904" priority="230" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="898" priority="230" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="903" priority="231" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="897" priority="231" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="902" priority="232" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="896" priority="232" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="901" priority="233" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="895" priority="233" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="900" priority="234" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="894" priority="234" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="899" priority="223" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="893" priority="223" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="898" priority="224" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="892" priority="224" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="897" priority="225" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="891" priority="225" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="896" priority="226" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="890" priority="226" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="895" priority="227" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="889" priority="227" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="894" priority="228" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="888" priority="228" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="893" priority="217" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="887" priority="217" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="892" priority="218" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="886" priority="218" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="891" priority="219" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="885" priority="219" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="890" priority="220" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="884" priority="220" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="889" priority="221" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="883" priority="221" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="888" priority="222" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="882" priority="222" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D93">
-    <cfRule type="containsText" dxfId="887" priority="211" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="881" priority="211" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="886" priority="212" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="880" priority="212" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="885" priority="213" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="879" priority="213" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="884" priority="214" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="878" priority="214" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="883" priority="215" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="877" priority="215" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="882" priority="216" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="876" priority="216" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D94">
-    <cfRule type="containsText" dxfId="881" priority="205" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="875" priority="205" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",D94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="880" priority="206" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="874" priority="206" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",D94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="879" priority="207" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="873" priority="207" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",D94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="878" priority="208" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="872" priority="208" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",D94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="877" priority="209" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="871" priority="209" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",D94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="876" priority="210" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="870" priority="210" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",D94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94">
-    <cfRule type="containsText" dxfId="875" priority="199" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="869" priority="199" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",F94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="874" priority="200" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="868" priority="200" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",F94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="873" priority="201" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="867" priority="201" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",F94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="872" priority="202" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="866" priority="202" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",F94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="871" priority="203" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="865" priority="203" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",F94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="870" priority="204" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="864" priority="204" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",F94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E95">
-    <cfRule type="containsText" dxfId="869" priority="193" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="863" priority="193" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",E95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="868" priority="194" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="862" priority="194" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",E95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="867" priority="195" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="861" priority="195" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",E95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="866" priority="196" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="860" priority="196" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",E95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="865" priority="197" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="859" priority="197" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",E95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="864" priority="198" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="858" priority="198" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",E95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G95">
-    <cfRule type="containsText" dxfId="863" priority="187" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="857" priority="187" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",G95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="862" priority="188" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="856" priority="188" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",G95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="861" priority="189" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="855" priority="189" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",G95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="860" priority="190" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="854" priority="190" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",G95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="859" priority="191" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="853" priority="191" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",G95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="858" priority="192" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="852" priority="192" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",G95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="containsText" dxfId="857" priority="181" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="851" priority="181" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="856" priority="182" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="850" priority="182" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="855" priority="183" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="849" priority="183" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="854" priority="184" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="848" priority="184" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="853" priority="185" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="847" priority="185" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="852" priority="186" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="846" priority="186" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="containsText" dxfId="851" priority="175" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="845" priority="175" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="850" priority="176" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="844" priority="176" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="849" priority="177" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="843" priority="177" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="848" priority="178" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="842" priority="178" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="847" priority="179" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="841" priority="179" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",H73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="846" priority="180" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="840" priority="180" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",H73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="containsText" dxfId="845" priority="133" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="839" priority="133" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="844" priority="134" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="838" priority="134" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="843" priority="135" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="837" priority="135" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="842" priority="136" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="836" priority="136" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="841" priority="137" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="835" priority="137" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="840" priority="138" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="834" priority="138" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="containsText" dxfId="839" priority="127" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="833" priority="127" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="838" priority="128" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="832" priority="128" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="837" priority="129" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="831" priority="129" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="836" priority="130" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="830" priority="130" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="835" priority="131" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="829" priority="131" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",E31)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="834" priority="132" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="828" priority="132" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",E31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34:H38">
-    <cfRule type="containsText" dxfId="833" priority="121" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="827" priority="121" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="832" priority="122" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="826" priority="122" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="831" priority="123" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="825" priority="123" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="830" priority="124" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="824" priority="124" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="829" priority="125" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="823" priority="125" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B34)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="828" priority="126" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="822" priority="126" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="containsText" dxfId="827" priority="115" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="821" priority="115" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="826" priority="116" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="820" priority="116" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="825" priority="117" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="819" priority="117" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="824" priority="118" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="818" priority="118" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="823" priority="119" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="817" priority="119" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",C32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="822" priority="120" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="816" priority="120" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",C32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97:H101">
-    <cfRule type="containsText" dxfId="821" priority="97" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="815" priority="97" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="820" priority="98" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="814" priority="98" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="819" priority="99" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="813" priority="99" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="818" priority="100" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="812" priority="100" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="817" priority="101" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="811" priority="101" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="816" priority="102" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="810" priority="102" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:H59">
-    <cfRule type="containsText" dxfId="815" priority="109" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="809" priority="109" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="814" priority="110" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="808" priority="110" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="813" priority="111" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="807" priority="111" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="812" priority="112" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="806" priority="112" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="811" priority="113" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="805" priority="113" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B55)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="810" priority="114" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="804" priority="114" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B55)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B76:H80">
-    <cfRule type="containsText" dxfId="809" priority="103" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="803" priority="103" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="808" priority="104" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="802" priority="104" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="807" priority="105" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="801" priority="105" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="806" priority="106" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="800" priority="106" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="805" priority="107" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="799" priority="107" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="804" priority="108" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="798" priority="108" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:H18">
-    <cfRule type="containsText" dxfId="803" priority="85" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="797" priority="85" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="802" priority="86" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="796" priority="86" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="801" priority="87" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="795" priority="87" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="800" priority="88" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="794" priority="88" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="799" priority="89" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="793" priority="89" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="798" priority="90" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="792" priority="90" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:H40">
-    <cfRule type="containsText" dxfId="797" priority="37" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="791" priority="37" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="796" priority="38" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="790" priority="38" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="795" priority="39" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="789" priority="39" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="794" priority="40" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="788" priority="40" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="793" priority="41" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="787" priority="41" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="792" priority="42" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="786" priority="42" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH9:AH10">
-    <cfRule type="containsText" dxfId="791" priority="73" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="785" priority="73" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",AH9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="790" priority="74" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="784" priority="74" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",AH9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="789" priority="75" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="783" priority="75" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",AH9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="788" priority="76" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="782" priority="76" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",AH9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="787" priority="77" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="781" priority="77" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",AH9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="786" priority="78" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="780" priority="78" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",AH9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ4:AO8 AI5:AI8 AQ4">
-    <cfRule type="containsText" dxfId="785" priority="67" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="779" priority="67" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="784" priority="68" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="778" priority="68" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="783" priority="69" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="777" priority="69" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="782" priority="70" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="776" priority="70" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="781" priority="71" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="775" priority="71" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="780" priority="72" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="774" priority="72" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",AI4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AO8 AQ4">
-    <cfRule type="containsText" dxfId="779" priority="61" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="773" priority="61" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="778" priority="62" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="772" priority="62" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="777" priority="63" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="771" priority="63" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="776" priority="64" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="770" priority="64" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="775" priority="65" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="769" priority="65" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",AI4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="774" priority="66" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="768" priority="66" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",AI4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40:H44 B41:B44">
-    <cfRule type="containsText" dxfId="773" priority="43" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="767" priority="43" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="772" priority="44" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="766" priority="44" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="771" priority="45" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="765" priority="45" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="770" priority="46" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="764" priority="46" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="769" priority="47" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="763" priority="47" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="768" priority="48" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="762" priority="48" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61:H61">
-    <cfRule type="containsText" dxfId="767" priority="25" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="761" priority="25" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="766" priority="26" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="760" priority="26" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="765" priority="27" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="759" priority="27" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="764" priority="28" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="758" priority="28" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="763" priority="29" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="757" priority="29" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="762" priority="30" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="756" priority="30" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C61:H65 B62:B65">
-    <cfRule type="containsText" dxfId="761" priority="31" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="755" priority="31" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="760" priority="32" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="754" priority="32" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="759" priority="33" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="753" priority="33" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="758" priority="34" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="752" priority="34" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="757" priority="35" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="751" priority="35" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="756" priority="36" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="750" priority="36" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B82:H82">
-    <cfRule type="containsText" dxfId="755" priority="13" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="749" priority="13" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="754" priority="14" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="748" priority="14" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="753" priority="15" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="747" priority="15" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="752" priority="16" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="746" priority="16" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="751" priority="17" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="745" priority="17" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="750" priority="18" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="744" priority="18" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B103:H103">
+    <cfRule type="containsText" dxfId="743" priority="1" operator="containsText" text="주간">
+      <formula>NOT(ISERROR(SEARCH("주간",B103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="742" priority="2" operator="containsText" text="오후">
+      <formula>NOT(ISERROR(SEARCH("오후",B103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="741" priority="3" operator="containsText" text="심야">
+      <formula>NOT(ISERROR(SEARCH("심야",B103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="740" priority="4" operator="containsText" text="휴무">
+      <formula>NOT(ISERROR(SEARCH("휴무",B103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="739" priority="5" operator="containsText" text="야간">
+      <formula>NOT(ISERROR(SEARCH("야간",B103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="738" priority="6" operator="containsText" text="오전">
+      <formula>NOT(ISERROR(SEARCH("오전",B103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82:H86 B83:B86">
-    <cfRule type="containsText" dxfId="743" priority="19" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="737" priority="19" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="742" priority="20" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="736" priority="20" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="741" priority="21" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="735" priority="21" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="740" priority="22" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="734" priority="22" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="739" priority="23" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="733" priority="23" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="738" priority="24" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="732" priority="24" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B82)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B103:H103">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="주간">
-      <formula>NOT(ISERROR(SEARCH("주간",B103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="오후">
-      <formula>NOT(ISERROR(SEARCH("오후",B103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="심야">
-      <formula>NOT(ISERROR(SEARCH("심야",B103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="휴무">
-      <formula>NOT(ISERROR(SEARCH("휴무",B103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="야간">
-      <formula>NOT(ISERROR(SEARCH("야간",B103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="오전">
-      <formula>NOT(ISERROR(SEARCH("오전",B103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103:H107 B104:B107">
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="주간">
+    <cfRule type="containsText" dxfId="731" priority="7" operator="containsText" text="주간">
       <formula>NOT(ISERROR(SEARCH("주간",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="오후">
+    <cfRule type="containsText" dxfId="730" priority="8" operator="containsText" text="오후">
       <formula>NOT(ISERROR(SEARCH("오후",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="심야">
+    <cfRule type="containsText" dxfId="729" priority="9" operator="containsText" text="심야">
       <formula>NOT(ISERROR(SEARCH("심야",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="휴무">
+    <cfRule type="containsText" dxfId="728" priority="10" operator="containsText" text="휴무">
       <formula>NOT(ISERROR(SEARCH("휴무",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="11" operator="containsText" text="야간">
+    <cfRule type="containsText" dxfId="727" priority="11" operator="containsText" text="야간">
       <formula>NOT(ISERROR(SEARCH("야간",B103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="12" operator="containsText" text="오전">
+    <cfRule type="containsText" dxfId="726" priority="12" operator="containsText" text="오전">
       <formula>NOT(ISERROR(SEARCH("오전",B103)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34723,31 +34711,183 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D6:E8"/>
+  <dimension ref="D6:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="4:11" x14ac:dyDescent="0.45">
       <c r="D6" t="s">
         <v>109</v>
       </c>
+      <c r="K6" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>110</v>
       </c>
+      <c r="K7" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="4:11" x14ac:dyDescent="0.45">
       <c r="E8" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="D9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.45">
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="F13" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" s="149" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="F14" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="149" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="F15" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="149" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="149" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="F16" s="149" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="149" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="149" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="4:8" ht="20.5" x14ac:dyDescent="0.45">
+      <c r="F17" s="141" t="s">
+        <v>119</v>
+      </c>
+      <c r="G17" s="141" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="141" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="E21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.45">
+      <c r="E25" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
+  <conditionalFormatting sqref="H17:I17 F17">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="주간">
+      <formula>NOT(ISERROR(SEARCH("주간",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" operator="containsText" text="오후">
+      <formula>NOT(ISERROR(SEARCH("오후",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="9" operator="containsText" text="심야">
+      <formula>NOT(ISERROR(SEARCH("심야",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="10" operator="containsText" text="휴무">
+      <formula>NOT(ISERROR(SEARCH("휴무",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="야간">
+      <formula>NOT(ISERROR(SEARCH("야간",F17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="오전">
+      <formula>NOT(ISERROR(SEARCH("오전",F17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="주간">
+      <formula>NOT(ISERROR(SEARCH("주간",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="오후">
+      <formula>NOT(ISERROR(SEARCH("오후",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="심야">
+      <formula>NOT(ISERROR(SEARCH("심야",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="휴무">
+      <formula>NOT(ISERROR(SEARCH("휴무",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="야간">
+      <formula>NOT(ISERROR(SEARCH("야간",J17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="오전">
+      <formula>NOT(ISERROR(SEARCH("오전",J17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>